--- a/Assignment01/data03.xlsx
+++ b/Assignment01/data03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters\Sem02_Winter2022\DataVisualization\Assignment01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D71D724-32C7-42FB-AC7C-360E5987391E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2972DC-1306-4B62-8A10-ED6372533BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{85A32789-F5F6-45AF-82E1-6E5E7CFA4372}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>$61,000+</t>
   </si>
@@ -53,13 +53,22 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>car Sales %</t>
+  </si>
+  <si>
+    <t>Light Truck Sales %</t>
+  </si>
+  <si>
+    <t>Other plots which suits our dataset. But these graphs are cluttered and not easy to infer because of large data comparetively</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -126,7 +135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1399,7 +1408,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1611,6 +1620,1291 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Car Sales </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.113</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.71299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.11899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F92-4EAF-A144-DE25F2F64F1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Light Truck Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.76300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.53600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.677</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F92-4EAF-A144-DE25F2F64F1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1019929120"/>
+        <c:axId val="1019917056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1019929120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1019917056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1019917056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1019929120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>car Sales %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31439350634503271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4061964101977826</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14862238481765183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0803704127129306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0521321595975772</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9152852406539398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6008917343089069</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20006859494683901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7723791014061976</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6462787241339891</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6577112152738087</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.566251286155254</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3621813193094807</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0756830913456055</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.66308448610952353</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.7162455699096854E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.7162455699096854E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.17148736709729057</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19435234937692933</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3204527266491375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20578484051674864</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9603292557448273</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.63484623299417</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66880073167943332</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0575054304332918</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.23436606836629714</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.38870469875385866</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.68023322281925258</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.2878701269006534E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.5743683548645283E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.12575740253801307</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.4297473419458116E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.60020578484051701</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.4297473419458116E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.10860866582828403</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.7162455699096854E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7148736709729058E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.46873213673259428</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.7162455699096854E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.10860866582828403</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1600548759574712</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.13147364810792275</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.5205213215959765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7126-497E-8971-63C36D24FB4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Light Truck Sales %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.4805076026066086</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.96604550131473688</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.5834000228649829</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.4519263747570601</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.79455813421744648</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5.939179147136163</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.3614953698410908</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.8356007774093994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.3376014633588666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.0639076254715918</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.9663884760489316</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.25151480507602614</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.83457185320681393</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.0117754658740143</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.5262375671658863</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.401166114096263</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5.4475820281239304</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.1150108608665836</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.5861438207385437</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.1600548759574712</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.18863610380701964</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.7663198811020928</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.71453069623871068</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.55447582028123954</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.17720361266720025</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-6.2878701269006534E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.45729964559277486</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-8.5743683548645283E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.29152852406539398</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.22293357722647775</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.66308448610952353</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.48588087344232334</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.34297473419458113</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.30296101520521335</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.29724476963530366</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.8120498456613703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7126-497E-8971-63C36D24FB4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1227065296"/>
+        <c:axId val="1227062384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1227065296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1227062384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1227062384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1227065296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -1648,6 +2942,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2164,20 +3538,1030 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182879</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2197,6 +4581,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>874954</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>16583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1057835</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DE5E6D-2D60-4528-8FFD-F27FD81B3767}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>56478</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>10757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2CACA41-D072-4404-A410-A2A867AC284C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2504,8 +4960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB30B3F-0447-447D-861B-237EFF1508ED}">
   <dimension ref="A1:H211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:D54"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2513,6 +4969,8 @@
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.88671875" customWidth="1"/>
     <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -2528,6 +4986,12 @@
       <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
@@ -2542,6 +5006,14 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
+      <c r="E2">
+        <f>$B2/SUM($B$2:$C$53)*100</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>($C2/SUM($B$2:$C$53))*-100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -2556,6 +5028,14 @@
       <c r="D3" s="3">
         <v>0</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E53" si="0">$B3/SUM($B$2:$C$53)*100</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F53" si="1">($C3/SUM($B$2:$C$53))*-100</f>
+        <v>0</v>
+      </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2571,6 +5051,14 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2586,6 +5074,14 @@
       <c r="D5" s="3">
         <v>0</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2601,6 +5097,14 @@
       <c r="D6" s="3">
         <v>5.5E-2</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.31439350634503271</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2616,6 +5120,14 @@
       <c r="D7" s="3">
         <v>0</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2631,6 +5143,14 @@
       <c r="D8" s="3">
         <v>0.246</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.4061964101977826</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2646,6 +5166,14 @@
       <c r="D9" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.14862238481765183</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2661,6 +5189,14 @@
       <c r="D10" s="3">
         <v>0.189</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.0803704127129306</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2676,6 +5212,14 @@
       <c r="D11" s="3">
         <v>0.35899999999999999</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.0521321595975772</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2691,6 +5235,14 @@
       <c r="D12" s="3">
         <v>0.51</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2.9152852406539398</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2706,6 +5258,14 @@
       <c r="D13" s="3">
         <v>0.45500000000000002</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2.6008917343089069</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2721,6 +5281,14 @@
       <c r="D14" s="3">
         <v>0.29399999999999998</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.20006859494683901</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>-1.4805076026066086</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2736,6 +5304,14 @@
       <c r="D15" s="3">
         <v>0.65400000000000003</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2.7723791014061976</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>-0.96604550131473688</v>
+      </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2751,6 +5327,14 @@
       <c r="D16" s="3">
         <v>0.56499999999999995</v>
       </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.6462787241339891</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>-1.5834000228649829</v>
+      </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2766,6 +5350,14 @@
       <c r="D17" s="3">
         <v>0.54500000000000004</v>
       </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.6577112152738087</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>-1.4519263747570601</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2781,6 +5373,14 @@
       <c r="D18" s="3">
         <v>0.41299999999999998</v>
       </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.566251286155254</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>-0.79455813421744648</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2796,6 +5396,14 @@
       <c r="D19" s="3">
         <v>2.1520000000000001</v>
       </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>6.3621813193094807</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>-5.939179147136163</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2811,6 +5419,14 @@
       <c r="D20" s="3">
         <v>1.476</v>
       </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>4.0756830913456055</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>-4.3614953698410908</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2826,6 +5442,14 @@
       <c r="D21" s="3">
         <v>0.78700000000000003</v>
       </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.66308448610952353</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>-3.8356007774093994</v>
+      </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2841,6 +5465,14 @@
       <c r="D22" s="3">
         <v>0.23499999999999999</v>
       </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>5.7162455699096854E-3</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>-1.3376014633588666</v>
+      </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2856,6 +5488,14 @@
       <c r="D23" s="3">
         <v>0.53700000000000003</v>
       </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>5.7162455699096854E-3</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>-3.0639076254715918</v>
+      </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2871,6 +5511,14 @@
       <c r="D24" s="3">
         <v>0.373</v>
       </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.17148736709729057</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>-1.9663884760489316</v>
+      </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2886,6 +5534,14 @@
       <c r="D25" s="3">
         <v>7.8E-2</v>
       </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.19435234937692933</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>-0.25151480507602614</v>
+      </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2901,6 +5557,14 @@
       <c r="D26" s="3">
         <v>0.377</v>
       </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1.3204527266491375</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>-0.83457185320681393</v>
+      </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2916,6 +5580,14 @@
       <c r="D27" s="3">
         <v>0.21299999999999999</v>
       </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0.20578484051674864</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>-1.0117754658740143</v>
+      </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2931,6 +5603,14 @@
       <c r="D28" s="3">
         <v>0.436</v>
       </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.9603292557448273</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>-1.5262375671658863</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2946,6 +5626,14 @@
       <c r="D29" s="3">
         <v>0.88</v>
       </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1.63484623299417</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>-3.401166114096263</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2961,6 +5649,14 @@
       <c r="D30" s="3">
         <v>1.07</v>
       </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.66880073167943332</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>-5.4475820281239304</v>
+      </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2976,6 +5672,14 @@
       <c r="D31" s="3">
         <v>0.55600000000000005</v>
       </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1.0575054304332918</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>-2.1150108608665836</v>
+      </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2991,6 +5695,14 @@
       <c r="D32" s="3">
         <v>1.718</v>
       </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0.23436606836629714</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>-9.5861438207385437</v>
+      </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -3006,6 +5718,14 @@
       <c r="D33" s="3">
         <v>9.6000000000000002E-2</v>
       </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.38870469875385866</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>-0.1600548759574712</v>
+      </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -3021,6 +5741,14 @@
       <c r="D34" s="3">
         <v>0.152</v>
       </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.68023322281925258</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>-0.18863610380701964</v>
+      </c>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -3036,6 +5764,14 @@
       <c r="D35" s="3">
         <v>0</v>
       </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -3051,6 +5787,14 @@
       <c r="D36" s="3">
         <v>0.32</v>
       </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>6.2878701269006534E-2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>-1.7663198811020928</v>
+      </c>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -3066,6 +5810,14 @@
       <c r="D37" s="3">
         <v>0.14000000000000001</v>
       </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>8.5743683548645283E-2</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>-0.71453069623871068</v>
+      </c>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -3081,6 +5833,14 @@
       <c r="D38" s="3">
         <v>0.11899999999999999</v>
       </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0.12575740253801307</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>-0.55447582028123954</v>
+      </c>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -3096,6 +5856,14 @@
       <c r="D39" s="3">
         <v>3.6999999999999998E-2</v>
       </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>3.4297473419458116E-2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>-0.17720361266720025</v>
+      </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -3111,6 +5879,14 @@
       <c r="D40" s="3">
         <v>0.105</v>
       </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0.60020578484051701</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -3126,6 +5902,14 @@
       <c r="D41" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>3.4297473419458116E-2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
@@ -3140,6 +5924,14 @@
       <c r="D42" s="3">
         <v>0.03</v>
       </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>0.10860866582828403</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>-6.2878701269006534E-2</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
@@ -3154,6 +5946,14 @@
       <c r="D43" s="3">
         <v>8.1000000000000003E-2</v>
       </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>5.7162455699096854E-3</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>-0.45729964559277486</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
@@ -3168,6 +5968,14 @@
       <c r="D44" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>1.7148736709729058E-2</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>-8.5743683548645283E-2</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
@@ -3182,6 +5990,14 @@
       <c r="D45" s="3">
         <v>0.13300000000000001</v>
       </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0.46873213673259428</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>-0.29152852406539398</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
@@ -3196,6 +6012,14 @@
       <c r="D46" s="3">
         <v>0</v>
       </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
@@ -3210,6 +6034,14 @@
       <c r="D47" s="3">
         <v>3.9E-2</v>
       </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>-0.22293357722647775</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
@@ -3224,6 +6056,14 @@
       <c r="D48" s="3">
         <v>0.11700000000000001</v>
       </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>5.7162455699096854E-3</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>-0.66308448610952353</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
@@ -3238,6 +6078,14 @@
       <c r="D49" s="3">
         <v>8.5000000000000006E-2</v>
       </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>-0.48588087344232334</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
@@ -3252,6 +6100,14 @@
       <c r="D50" s="3">
         <v>7.9000000000000001E-2</v>
       </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>0.10860866582828403</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>-0.34297473419458113</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
@@ -3266,6 +6122,14 @@
       <c r="D51" s="3">
         <v>8.1000000000000003E-2</v>
       </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>0.1600548759574712</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>-0.30296101520521335</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
@@ -3280,6 +6144,14 @@
       <c r="D52" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>0.13147364810792275</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>-0.29724476963530366</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
@@ -3293,6 +6165,14 @@
       </c>
       <c r="D53" s="3">
         <v>0.58299999999999996</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>1.5205213215959765</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>-1.8120498456613703</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -3328,7 +6208,9 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
+      <c r="A57" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
